--- a/branches/master/StructureDefinition-EUPatient.xlsx
+++ b/branches/master/StructureDefinition-EUPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T19:58:04+00:00</t>
+    <t>2023-03-07T20:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-EUPatient.xlsx
+++ b/branches/master/StructureDefinition-EUPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:06:52+00:00</t>
+    <t>2023-03-07T20:20:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-EUPatient.xlsx
+++ b/branches/master/StructureDefinition-EUPatient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="371">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:20:40+00:00</t>
+    <t>2023-03-07T21:49:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -275,6 +275,9 @@
     <t>ClinicalDocument.recordTarget.patientRole</t>
   </si>
   <si>
+    <t>administrative.individual</t>
+  </si>
+  <si>
     <t>Patient.id</t>
   </si>
   <si>
@@ -358,7 +361,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>IETF language tag</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -416,6 +419,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -456,7 +463,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -800,7 +807,7 @@
     <t>Need to track people you can contact about the patient.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
 pat-1:SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}</t>
   </si>
   <si>
@@ -930,7 +937,7 @@
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.3.0</t>
   </si>
   <si>
     <t>NK1-15</t>
@@ -991,6 +998,10 @@
   </si>
   <si>
     <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
   </si>
   <si>
     <t>LanguageCommunication</t>
@@ -1159,7 +1170,7 @@
     <t>The type of link between this patient resource and another patient resource.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/link-type|4.3.0</t>
   </si>
   <si>
     <t>typeCode</t>
@@ -1757,7 +1768,7 @@
         <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>80</v>
@@ -1768,10 +1779,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1782,7 +1793,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>80</v>
@@ -1791,19 +1802,19 @@
         <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1853,13 +1864,13 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>80</v>
@@ -1885,10 +1896,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1899,7 +1910,7 @@
         <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
@@ -1908,16 +1919,16 @@
         <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1968,19 +1979,19 @@
         <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -2000,10 +2011,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2014,28 +2025,28 @@
         <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2085,19 +2096,19 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>80</v>
@@ -2117,10 +2128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2131,7 +2142,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>80</v>
@@ -2143,16 +2154,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2178,13 +2189,13 @@
         <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>80</v>
@@ -2202,19 +2213,19 @@
         <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2234,21 +2245,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>80</v>
@@ -2260,16 +2271,16 @@
         <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2319,22 +2330,22 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>80</v>
@@ -2351,14 +2362,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2377,16 +2388,16 @@
         <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2436,7 +2447,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -2448,10 +2459,10 @@
         <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>80</v>
@@ -2468,14 +2479,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2494,16 +2505,16 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2553,7 +2564,7 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2565,10 +2576,10 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>80</v>
@@ -2585,14 +2596,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2605,25 +2616,25 @@
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>80</v>
@@ -2672,7 +2683,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2684,10 +2695,10 @@
         <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>80</v>
@@ -2704,10 +2715,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2727,20 +2738,20 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>80</v>
@@ -2789,7 +2800,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2801,19 +2812,19 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>80</v>
@@ -2821,10 +2832,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2835,103 +2846,103 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="AI12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>80</v>
@@ -2942,10 +2953,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2965,22 +2976,22 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3029,7 +3040,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3041,19 +3052,19 @@
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>80</v>
@@ -3061,10 +3072,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3084,22 +3095,22 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3148,7 +3159,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3160,19 +3171,19 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>80</v>
@@ -3180,10 +3191,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3194,7 +3205,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3203,22 +3214,22 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -3243,11 +3254,11 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -3265,31 +3276,31 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>80</v>
@@ -3297,10 +3308,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3311,7 +3322,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3320,22 +3331,22 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3384,42 +3395,42 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3430,31 +3441,31 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -3503,31 +3514,31 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -3535,10 +3546,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3558,22 +3569,22 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3622,7 +3633,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3634,19 +3645,19 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
@@ -3654,10 +3665,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3668,7 +3679,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -3680,17 +3691,17 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -3715,13 +3726,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -3739,31 +3750,31 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -3771,10 +3782,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3785,7 +3796,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -3797,19 +3808,19 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -3858,31 +3869,31 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -3890,10 +3901,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3916,19 +3927,19 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -3977,7 +3988,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3989,19 +4000,19 @@
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4009,10 +4020,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4035,19 +4046,19 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4096,7 +4107,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4108,13 +4119,13 @@
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -4128,10 +4139,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4142,7 +4153,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4154,13 +4165,13 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4211,13 +4222,13 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
@@ -4226,7 +4237,7 @@
         <v>80</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
@@ -4243,14 +4254,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4269,16 +4280,16 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4328,7 +4339,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4340,10 +4351,10 @@
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -4360,14 +4371,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4380,25 +4391,25 @@
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4447,7 +4458,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4459,10 +4470,10 @@
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -4479,10 +4490,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4505,17 +4516,17 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4540,13 +4551,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4564,7 +4575,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4576,19 +4587,19 @@
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -4596,10 +4607,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4610,7 +4621,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -4622,17 +4633,17 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -4681,31 +4692,31 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -4713,10 +4724,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4739,19 +4750,19 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -4800,7 +4811,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4812,19 +4823,19 @@
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -4832,10 +4843,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4846,7 +4857,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -4858,17 +4869,17 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -4917,31 +4928,31 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -4949,10 +4960,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4963,7 +4974,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -4975,17 +4986,17 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5010,13 +5021,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5034,31 +5045,31 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5066,10 +5077,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5080,7 +5091,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5092,17 +5103,17 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5151,31 +5162,31 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -5183,10 +5194,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5197,7 +5208,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5209,13 +5220,13 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5266,25 +5277,25 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5298,10 +5309,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5324,19 +5335,19 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5385,7 +5396,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5397,13 +5408,13 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>315</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5417,10 +5428,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5431,7 +5442,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5443,13 +5454,13 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5500,13 +5511,13 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
@@ -5515,7 +5526,7 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -5532,14 +5543,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5558,16 +5569,16 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5617,7 +5628,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5629,10 +5640,10 @@
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -5649,14 +5660,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5669,25 +5680,25 @@
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -5736,7 +5747,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5748,10 +5759,10 @@
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -5768,10 +5779,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5779,10 +5790,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -5794,19 +5805,19 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -5831,13 +5842,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -5855,31 +5866,31 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -5887,10 +5898,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5901,7 +5912,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -5913,19 +5924,19 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -5974,31 +5985,31 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6006,14 +6017,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6032,16 +6043,16 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6091,7 +6102,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6103,19 +6114,19 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6123,10 +6134,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6137,7 +6148,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6146,22 +6157,22 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6210,25 +6221,25 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6242,10 +6253,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6262,25 +6273,25 @@
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6329,7 +6340,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6341,13 +6352,13 @@
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>315</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6361,10 +6372,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6375,7 +6386,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6387,13 +6398,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6444,13 +6455,13 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
@@ -6459,7 +6470,7 @@
         <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -6476,14 +6487,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6502,16 +6513,16 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6561,7 +6572,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6573,10 +6584,10 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -6593,14 +6604,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6613,25 +6624,25 @@
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -6680,7 +6691,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6692,10 +6703,10 @@
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
@@ -6712,10 +6723,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6723,10 +6734,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -6735,19 +6746,19 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6797,31 +6808,31 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -6829,10 +6840,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6840,10 +6851,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -6852,16 +6863,16 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6888,49 +6899,49 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Z46" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AA46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>

--- a/branches/master/StructureDefinition-EUPatient.xlsx
+++ b/branches/master/StructureDefinition-EUPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T21:49:30+00:00</t>
+    <t>2023-03-08T20:30:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-EUPatient.xlsx
+++ b/branches/master/StructureDefinition-EUPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T20:30:47+00:00</t>
+    <t>2023-03-08T21:06:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
